--- a/out_users_app/ltu-aide_au_diagnostic_TIA_V19_A/Liste_LTU_BackJump.xlsx
+++ b/out_users_app/ltu-aide_au_diagnostic_TIA_V19_A/Liste_LTU_BackJump.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGROM_OneDrive\OneDrive - Groupement les Mousquetaires\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGROM_OneDrive\OneDrive - Groupement les Mousquetaires\Bureau\Documentation_Technique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981B095F-3423-4E63-BC26-B76F4F3AAAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9C400-7278-4CBD-8267-C18E0DD538F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{028390B1-513A-4FF7-A706-5FA59F55E6AA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="310">
   <si>
     <t>Nom du bloc</t>
   </si>
@@ -97,78 +97,9 @@
     <t>LTU_Clock</t>
   </si>
   <si>
-    <t>#iERZ</t>
-  </si>
-  <si>
-    <t>#iAlarm</t>
-  </si>
-  <si>
-    <t>#iExternalFault</t>
-  </si>
-  <si>
-    <t>#iILockAction</t>
-  </si>
-  <si>
-    <t>#iCmdAction</t>
-  </si>
-  <si>
-    <t>#iAutoSetPoint</t>
-  </si>
-  <si>
-    <t>#iStart</t>
-  </si>
-  <si>
-    <t>#iStartTimeSlot</t>
-  </si>
-  <si>
-    <t>#iPause</t>
-  </si>
-  <si>
-    <t>#iTransition1</t>
-  </si>
-  <si>
-    <t>#iTransition2</t>
-  </si>
-  <si>
-    <t>#iTransition3</t>
-  </si>
-  <si>
-    <t>#iTransition4</t>
-  </si>
-  <si>
-    <t>#iTransition5</t>
-  </si>
-  <si>
-    <t>#iTransition6</t>
-  </si>
-  <si>
-    <t>#iTransition7</t>
-  </si>
-  <si>
-    <t>#iTransition8</t>
-  </si>
-  <si>
     <t>LTU_Compare</t>
   </si>
   <si>
-    <t>#iInt1</t>
-  </si>
-  <si>
-    <t>#iInt2</t>
-  </si>
-  <si>
-    <t>#iDInt1</t>
-  </si>
-  <si>
-    <t>#iDInt2</t>
-  </si>
-  <si>
-    <t>#iReal1</t>
-  </si>
-  <si>
-    <t>#iReal2</t>
-  </si>
-  <si>
     <t>LTU_AnalogFilter</t>
   </si>
   <si>
@@ -328,9 +259,6 @@
     <t>LTU_MotorRev</t>
   </si>
   <si>
-    <t>LTU_SinamicsMotorRevDrive</t>
-  </si>
-  <si>
     <t>LTU_MotorLsHs</t>
   </si>
   <si>
@@ -340,420 +268,18 @@
     <t xml:space="preserve">LTU_JacirSetpointCalcul </t>
   </si>
   <si>
-    <t>#iAnalog</t>
-  </si>
-  <si>
-    <t>#iActivation</t>
-  </si>
-  <si>
-    <t>#i1stActReq</t>
-  </si>
-  <si>
-    <t>#iAddActReq</t>
-  </si>
-  <si>
-    <t>#iLessActReq</t>
-  </si>
-  <si>
-    <t>#iLastActStopReq</t>
-  </si>
-  <si>
-    <t>#iPerm2Acts</t>
-  </si>
-  <si>
-    <t>#iPerm3Acts</t>
-  </si>
-  <si>
-    <t>#iPerm4Acts</t>
-  </si>
-  <si>
-    <t>#iA1FeedBack</t>
-  </si>
-  <si>
-    <t>#iA2FeedBack</t>
-  </si>
-  <si>
-    <t>#iA3FeedBack</t>
-  </si>
-  <si>
-    <t>#iA4FeedBack</t>
-  </si>
-  <si>
-    <t>#iElectricPower</t>
-  </si>
-  <si>
-    <t>#iEnergyPower</t>
-  </si>
-  <si>
-    <t>#iEstop</t>
-  </si>
-  <si>
-    <t>#iStopButtonLocally</t>
-  </si>
-  <si>
-    <t>#iProgrammedStop</t>
-  </si>
-  <si>
-    <t>#iExternalStop</t>
-  </si>
-  <si>
-    <t>#iColdDemDisplay</t>
-  </si>
-  <si>
-    <t>#iDefrostDisplay</t>
-  </si>
-  <si>
-    <t>#iLoadSheddingDisplay</t>
-  </si>
-  <si>
-    <t>#iPreWashDisplay</t>
-  </si>
-  <si>
-    <t>#iWashDisplay</t>
-  </si>
-  <si>
-    <t>#iDryDisplay</t>
-  </si>
-  <si>
-    <t>#iFaultDisplay</t>
-  </si>
-  <si>
-    <t>#iInc</t>
-  </si>
-  <si>
-    <t>#iDec</t>
-  </si>
-  <si>
-    <t>#iReset</t>
-  </si>
-  <si>
-    <t>#iValid</t>
-  </si>
-  <si>
-    <t>#iAuto</t>
-  </si>
-  <si>
-    <t>#iManuBPAdd</t>
-  </si>
-  <si>
-    <t>#iManuBPLess</t>
-  </si>
-  <si>
-    <t>#iStartReq</t>
-  </si>
-  <si>
-    <t>#iCpFeedBack</t>
-  </si>
-  <si>
-    <t>#iCpMaxStage</t>
-  </si>
-  <si>
-    <t>#iCpPower</t>
-  </si>
-  <si>
-    <t>#iCpPowerSetpoint</t>
-  </si>
-  <si>
-    <t>#iPermissReg</t>
-  </si>
-  <si>
-    <t>#iStartCycleInProgress</t>
-  </si>
-  <si>
-    <t>#iStartSpeedRequest</t>
-  </si>
-  <si>
-    <t>#iBlocking100</t>
-  </si>
-  <si>
-    <t>#iDriveSpeedPercent</t>
-  </si>
-  <si>
-    <t>#iDriveSpeedHz</t>
-  </si>
-  <si>
-    <t>#iCpFault</t>
-  </si>
-  <si>
     <t>s_BackJump[15]</t>
   </si>
   <si>
     <t>s_BackJump[16]</t>
   </si>
   <si>
-    <t>#iInput</t>
-  </si>
-  <si>
-    <t>#iPressure</t>
-  </si>
-  <si>
-    <t>#iTemperature</t>
-  </si>
-  <si>
-    <t>#iLimitActionFault</t>
-  </si>
-  <si>
-    <t>#iLimitRestFault</t>
-  </si>
-  <si>
-    <t>#iCmdRest</t>
-  </si>
-  <si>
-    <t>#iILockRest</t>
-  </si>
-  <si>
-    <t>#iIn1</t>
-  </si>
-  <si>
-    <t>#iIn2</t>
-  </si>
-  <si>
-    <t>#iIn3</t>
-  </si>
-  <si>
-    <t>#iIn4</t>
-  </si>
-  <si>
-    <t>#iIn5</t>
-  </si>
-  <si>
-    <t>#iIn6</t>
-  </si>
-  <si>
-    <t>#iIn7</t>
-  </si>
-  <si>
-    <t>#iIn8</t>
-  </si>
-  <si>
-    <t>#iA</t>
-  </si>
-  <si>
-    <t>#iX</t>
-  </si>
-  <si>
-    <t>#iB</t>
-  </si>
-  <si>
-    <t>#iValue0</t>
-  </si>
-  <si>
-    <t>#iValue100</t>
-  </si>
-  <si>
-    <t>#iForcing0</t>
-  </si>
-  <si>
-    <t>#iForcing100</t>
-  </si>
-  <si>
-    <t>#iEngineFeedBack</t>
-  </si>
-  <si>
-    <t>#iDisjunctionFault</t>
-  </si>
-  <si>
-    <t>#iCmdAuto</t>
-  </si>
-  <si>
-    <t>#iILock</t>
-  </si>
-  <si>
-    <t>#iSetPoint</t>
-  </si>
-  <si>
-    <t>#iProcessValue</t>
-  </si>
-  <si>
-    <t>#iLockOn</t>
-  </si>
-  <si>
-    <t>#iManVal</t>
-  </si>
-  <si>
-    <t>#iManualOn</t>
-  </si>
-  <si>
-    <t>#iSetValHL</t>
-  </si>
-  <si>
-    <t>#iSetValLL</t>
-  </si>
-  <si>
-    <t>#iManualUp</t>
-  </si>
-  <si>
-    <t>#iManualDown</t>
-  </si>
-  <si>
-    <t>#iActuatorSignalHL</t>
-  </si>
-  <si>
-    <t>#iActuatorSignalLL</t>
-  </si>
-  <si>
-    <t>#iCpSwitch</t>
-  </si>
-  <si>
-    <t>#iCpMiniSpeed</t>
-  </si>
-  <si>
-    <t>#iIntensityShedding</t>
-  </si>
-  <si>
-    <t>#iHPShedding</t>
-  </si>
-  <si>
-    <t>#iAntiShortCycle</t>
-  </si>
-  <si>
-    <t>#iMiniStop</t>
-  </si>
-  <si>
-    <t>#iMaxPower</t>
-  </si>
-  <si>
-    <t>#iStartPermissStandAlone</t>
-  </si>
-  <si>
-    <t>#iStopPermissStandAlone</t>
-  </si>
-  <si>
-    <t>#iStartPermiss</t>
-  </si>
-  <si>
     <t>s_BackJump[17]</t>
   </si>
   <si>
     <t>s_BackJump[18]</t>
   </si>
   <si>
-    <t>#iA1Dispo</t>
-  </si>
-  <si>
-    <t>#iA1Cmd</t>
-  </si>
-  <si>
-    <t>#iA2Dispo</t>
-  </si>
-  <si>
-    <t>#iA2Cmd</t>
-  </si>
-  <si>
-    <t>#iA3Dispo</t>
-  </si>
-  <si>
-    <t>#iA3Cmd</t>
-  </si>
-  <si>
-    <t>#iA4Dispo</t>
-  </si>
-  <si>
-    <t>#iA4Cmd</t>
-  </si>
-  <si>
-    <t>#iReq1A</t>
-  </si>
-  <si>
-    <t>#iReq2A</t>
-  </si>
-  <si>
-    <t>#iReq3A</t>
-  </si>
-  <si>
-    <t>#iReq4A</t>
-  </si>
-  <si>
-    <t>#iTopRot</t>
-  </si>
-  <si>
-    <t>#i1stCpReq</t>
-  </si>
-  <si>
-    <t>#iAddCpReq</t>
-  </si>
-  <si>
-    <t>#iLessCpReq</t>
-  </si>
-  <si>
-    <t>#iLastCpStopReq</t>
-  </si>
-  <si>
-    <t>#iPIDOutput</t>
-  </si>
-  <si>
-    <t>#iCp1ReqStart</t>
-  </si>
-  <si>
-    <t>#iCp1FeedBack</t>
-  </si>
-  <si>
-    <t>#iCp1CentralMode</t>
-  </si>
-  <si>
-    <t>#iCp1StartCycleOk</t>
-  </si>
-  <si>
-    <t>#iCp1ReadyStop</t>
-  </si>
-  <si>
-    <t>#iCp1Fault</t>
-  </si>
-  <si>
-    <t>#iCp2ReqStart</t>
-  </si>
-  <si>
-    <t>#iCp2FeedBack</t>
-  </si>
-  <si>
-    <t>#iCp2CentralMode</t>
-  </si>
-  <si>
-    <t>#iCp2StartCycleOk</t>
-  </si>
-  <si>
-    <t>#iCp2ReadyStop</t>
-  </si>
-  <si>
-    <t>#iCp2Fault</t>
-  </si>
-  <si>
-    <t>#iCp3ReqStart</t>
-  </si>
-  <si>
-    <t>#iCp3FeedBack</t>
-  </si>
-  <si>
-    <t>#iCp3CentralMode</t>
-  </si>
-  <si>
-    <t>#iCp3StartCycleOk</t>
-  </si>
-  <si>
-    <t>#iCp3ReadyStop</t>
-  </si>
-  <si>
-    <t>#iCp3Fault</t>
-  </si>
-  <si>
-    <t>#iCp4ReqStart</t>
-  </si>
-  <si>
-    <t>#iCp4FeedBack</t>
-  </si>
-  <si>
-    <t>#iCp4CentralMode</t>
-  </si>
-  <si>
-    <t>#iCp4StartCycleOk</t>
-  </si>
-  <si>
-    <t>#iCp4ReadyStop</t>
-  </si>
-  <si>
-    <t>#iCp4Fault</t>
-  </si>
-  <si>
     <t>s_BackJump[19]</t>
   </si>
   <si>
@@ -790,181 +316,655 @@
     <t>s_BackJump[30]</t>
   </si>
   <si>
-    <t>#iSwitchSetPoint</t>
-  </si>
-  <si>
-    <t>#iSetPoint1</t>
-  </si>
-  <si>
-    <t>#iSetPoint2</t>
-  </si>
-  <si>
-    <t>#iInhibAl0</t>
-  </si>
-  <si>
-    <t>#iInhibAl1</t>
-  </si>
-  <si>
-    <t>#iInhibAl2</t>
-  </si>
-  <si>
-    <t>#iInhibAl3</t>
-  </si>
-  <si>
-    <t>#iInhibFct0</t>
-  </si>
-  <si>
-    <t>#iInhibFct1</t>
-  </si>
-  <si>
-    <t>#iInhibFct2</t>
-  </si>
-  <si>
-    <t>#iInhibFct3</t>
-  </si>
-  <si>
-    <t>#iInhibFct4</t>
-  </si>
-  <si>
-    <t>#iSet</t>
-  </si>
-  <si>
-    <t>#iAutoSpeedSetpoint</t>
-  </si>
-  <si>
-    <t>#iBreak</t>
-  </si>
-  <si>
-    <t>#iPos0</t>
-  </si>
-  <si>
-    <t>#iPos1</t>
-  </si>
-  <si>
-    <t>#iPos2</t>
-  </si>
-  <si>
-    <t>#iPos3</t>
-  </si>
-  <si>
-    <t>#iPos4</t>
-  </si>
-  <si>
-    <t>#iPos5</t>
-  </si>
-  <si>
-    <t>#iPos6</t>
-  </si>
-  <si>
-    <t>#iPos7</t>
-  </si>
-  <si>
-    <t>#iPos8</t>
-  </si>
-  <si>
-    <t>#iTemp</t>
-  </si>
-  <si>
-    <t>#iHygro</t>
-  </si>
-  <si>
-    <t>#iERZGen</t>
-  </si>
-  <si>
     <t>LTU_PistCpPower</t>
   </si>
   <si>
-    <t>#iTtExt</t>
-  </si>
-  <si>
-    <t>#iTtRef</t>
-  </si>
-  <si>
-    <t>#iCdPu</t>
-  </si>
-  <si>
-    <t>#iWetMode</t>
-  </si>
-  <si>
-    <t>#iRec60</t>
-  </si>
-  <si>
-    <t>#iRec90</t>
-  </si>
-  <si>
-    <t>#iDriveFault</t>
-  </si>
-  <si>
-    <t>#iCmdFwd</t>
-  </si>
-  <si>
-    <t>#iILockFwd</t>
-  </si>
-  <si>
-    <t>#iCmdRev</t>
-  </si>
-  <si>
-    <t>#iILockRev</t>
-  </si>
-  <si>
-    <t>#iCpAvailable</t>
-  </si>
-  <si>
-    <t>#iCpReadyStop</t>
-  </si>
-  <si>
-    <t>#iCpMaxPower</t>
-  </si>
-  <si>
-    <t>#iCpAntiShortCycle</t>
-  </si>
-  <si>
-    <t>#iCpMiniStop</t>
-  </si>
-  <si>
-    <t>#iCpCapDrawerPower</t>
-  </si>
-  <si>
-    <t>#iStopReq</t>
-  </si>
-  <si>
-    <t>#iUpReq</t>
-  </si>
-  <si>
-    <t>#iDownReq</t>
-  </si>
-  <si>
-    <t>#iFastDownReq</t>
-  </si>
-  <si>
-    <t>#iSingleCpReg</t>
-  </si>
-  <si>
-    <t>#iMultipleCpReg</t>
-  </si>
-  <si>
-    <t>#iCpReadyStart</t>
-  </si>
-  <si>
-    <t>#iCpCapDrawerMinPower</t>
-  </si>
-  <si>
-    <t>#iCpCapDrawerMaxPower</t>
-  </si>
-  <si>
-    <t>#iCpSpeed</t>
-  </si>
-  <si>
-    <t>#iCpMinSpeed</t>
-  </si>
-  <si>
-    <t>#iCpMaxSpeed</t>
-  </si>
-  <si>
-    <t>#iCpVIDrawerPos</t>
-  </si>
-  <si>
-    <t>#iCpVIDrawerSetpoint</t>
+    <t>iERZ</t>
+  </si>
+  <si>
+    <t>iAlarm</t>
+  </si>
+  <si>
+    <t>iExternalFault</t>
+  </si>
+  <si>
+    <t>iAnalog</t>
+  </si>
+  <si>
+    <t>iILockAction</t>
+  </si>
+  <si>
+    <t>iCmdAction</t>
+  </si>
+  <si>
+    <t>iAutoSetPoint</t>
+  </si>
+  <si>
+    <t>iActivation</t>
+  </si>
+  <si>
+    <t>i1stActReq</t>
+  </si>
+  <si>
+    <t>iAddActReq</t>
+  </si>
+  <si>
+    <t>iLessActReq</t>
+  </si>
+  <si>
+    <t>iLastActStopReq</t>
+  </si>
+  <si>
+    <t>iPerm2Acts</t>
+  </si>
+  <si>
+    <t>iPerm3Acts</t>
+  </si>
+  <si>
+    <t>iPerm4Acts</t>
+  </si>
+  <si>
+    <t>iA1FeedBack</t>
+  </si>
+  <si>
+    <t>iA2FeedBack</t>
+  </si>
+  <si>
+    <t>iA3FeedBack</t>
+  </si>
+  <si>
+    <t>iA4FeedBack</t>
+  </si>
+  <si>
+    <t>iStart</t>
+  </si>
+  <si>
+    <t>iStartTimeSlot</t>
+  </si>
+  <si>
+    <t>iPause</t>
+  </si>
+  <si>
+    <t>iTransition1</t>
+  </si>
+  <si>
+    <t>iTransition2</t>
+  </si>
+  <si>
+    <t>iTransition3</t>
+  </si>
+  <si>
+    <t>iTransition4</t>
+  </si>
+  <si>
+    <t>iTransition5</t>
+  </si>
+  <si>
+    <t>iTransition6</t>
+  </si>
+  <si>
+    <t>iTransition7</t>
+  </si>
+  <si>
+    <t>iTransition8</t>
+  </si>
+  <si>
+    <t>iElectricPower</t>
+  </si>
+  <si>
+    <t>iEnergyPower</t>
+  </si>
+  <si>
+    <t>iEstop</t>
+  </si>
+  <si>
+    <t>iStopButtonLocally</t>
+  </si>
+  <si>
+    <t>iProgrammedStop</t>
+  </si>
+  <si>
+    <t>iExternalStop</t>
+  </si>
+  <si>
+    <t>iColdDemDisplay</t>
+  </si>
+  <si>
+    <t>iDefrostDisplay</t>
+  </si>
+  <si>
+    <t>iLoadSheddingDisplay</t>
+  </si>
+  <si>
+    <t>iPreWashDisplay</t>
+  </si>
+  <si>
+    <t>iWashDisplay</t>
+  </si>
+  <si>
+    <t>iDryDisplay</t>
+  </si>
+  <si>
+    <t>iFaultDisplay</t>
+  </si>
+  <si>
+    <t>iInt1</t>
+  </si>
+  <si>
+    <t>iInt2</t>
+  </si>
+  <si>
+    <t>iDInt1</t>
+  </si>
+  <si>
+    <t>iDInt2</t>
+  </si>
+  <si>
+    <t>iReal1</t>
+  </si>
+  <si>
+    <t>iReal2</t>
+  </si>
+  <si>
+    <t>iInc</t>
+  </si>
+  <si>
+    <t>iDec</t>
+  </si>
+  <si>
+    <t>iReset</t>
+  </si>
+  <si>
+    <t>iValid</t>
+  </si>
+  <si>
+    <t>iAuto</t>
+  </si>
+  <si>
+    <t>iManuBPAdd</t>
+  </si>
+  <si>
+    <t>iManuBPLess</t>
+  </si>
+  <si>
+    <t>iStartReq</t>
+  </si>
+  <si>
+    <t>iCpFeedBack</t>
+  </si>
+  <si>
+    <t>iCpMaxStage</t>
+  </si>
+  <si>
+    <t>iCpPower</t>
+  </si>
+  <si>
+    <t>iCpPowerSetpoint</t>
+  </si>
+  <si>
+    <t>iPermissReg</t>
+  </si>
+  <si>
+    <t>iStartCycleInProgress</t>
+  </si>
+  <si>
+    <t>iStartSpeedRequest</t>
+  </si>
+  <si>
+    <t>iBlocking100</t>
+  </si>
+  <si>
+    <t>iDriveSpeedPercent</t>
+  </si>
+  <si>
+    <t>iDriveSpeedHz</t>
+  </si>
+  <si>
+    <t>iCpFault</t>
+  </si>
+  <si>
+    <t>iInput</t>
+  </si>
+  <si>
+    <t>iPressure</t>
+  </si>
+  <si>
+    <t>iTemperature</t>
+  </si>
+  <si>
+    <t>iLimitActionFault</t>
+  </si>
+  <si>
+    <t>iLimitRestFault</t>
+  </si>
+  <si>
+    <t>iCmdRest</t>
+  </si>
+  <si>
+    <t>iILockRest</t>
+  </si>
+  <si>
+    <t>iIn1</t>
+  </si>
+  <si>
+    <t>iIn2</t>
+  </si>
+  <si>
+    <t>iIn3</t>
+  </si>
+  <si>
+    <t>iIn4</t>
+  </si>
+  <si>
+    <t>iIn5</t>
+  </si>
+  <si>
+    <t>iIn6</t>
+  </si>
+  <si>
+    <t>iIn7</t>
+  </si>
+  <si>
+    <t>iIn8</t>
+  </si>
+  <si>
+    <t>iTtExt</t>
+  </si>
+  <si>
+    <t>iTtRef</t>
+  </si>
+  <si>
+    <t>iCdPu</t>
+  </si>
+  <si>
+    <t>iWetMode</t>
+  </si>
+  <si>
+    <t>iRec60</t>
+  </si>
+  <si>
+    <t>iRec90</t>
+  </si>
+  <si>
+    <t>iA</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
+  <si>
+    <t>iB</t>
+  </si>
+  <si>
+    <t>iValue0</t>
+  </si>
+  <si>
+    <t>iValue100</t>
+  </si>
+  <si>
+    <t>iForcing0</t>
+  </si>
+  <si>
+    <t>iForcing100</t>
+  </si>
+  <si>
+    <t>iEngineFeedBack</t>
+  </si>
+  <si>
+    <t>iDisjunctionFault</t>
+  </si>
+  <si>
+    <t>iCmdAuto</t>
+  </si>
+  <si>
+    <t>iILock</t>
+  </si>
+  <si>
+    <t>iDriveFault</t>
+  </si>
+  <si>
+    <t>iCmdFwd</t>
+  </si>
+  <si>
+    <t>iILockFwd</t>
+  </si>
+  <si>
+    <t>iCmdRev</t>
+  </si>
+  <si>
+    <t>iILockRev</t>
+  </si>
+  <si>
+    <t>iSetPoint</t>
+  </si>
+  <si>
+    <t>iProcessValue</t>
+  </si>
+  <si>
+    <t>iLockOn</t>
+  </si>
+  <si>
+    <t>iManVal</t>
+  </si>
+  <si>
+    <t>iManualOn</t>
+  </si>
+  <si>
+    <t>iSetValHL</t>
+  </si>
+  <si>
+    <t>iSetValLL</t>
+  </si>
+  <si>
+    <t>iManualUp</t>
+  </si>
+  <si>
+    <t>iManualDown</t>
+  </si>
+  <si>
+    <t>iActuatorSignalHL</t>
+  </si>
+  <si>
+    <t>iActuatorSignalLL</t>
+  </si>
+  <si>
+    <t>iCpSwitch</t>
+  </si>
+  <si>
+    <t>iCpMiniSpeed</t>
+  </si>
+  <si>
+    <t>iIntensityShedding</t>
+  </si>
+  <si>
+    <t>iHPShedding</t>
+  </si>
+  <si>
+    <t>iAntiShortCycle</t>
+  </si>
+  <si>
+    <t>iMiniStop</t>
+  </si>
+  <si>
+    <t>iMaxPower</t>
+  </si>
+  <si>
+    <t>iStartPermissStandAlone</t>
+  </si>
+  <si>
+    <t>iStopPermissStandAlone</t>
+  </si>
+  <si>
+    <t>iStartPermiss</t>
+  </si>
+  <si>
+    <t>iA1Dispo</t>
+  </si>
+  <si>
+    <t>iA1Cmd</t>
+  </si>
+  <si>
+    <t>iA2Dispo</t>
+  </si>
+  <si>
+    <t>iA2Cmd</t>
+  </si>
+  <si>
+    <t>iA3Dispo</t>
+  </si>
+  <si>
+    <t>iA3Cmd</t>
+  </si>
+  <si>
+    <t>iA4Dispo</t>
+  </si>
+  <si>
+    <t>iA4Cmd</t>
+  </si>
+  <si>
+    <t>iReq1A</t>
+  </si>
+  <si>
+    <t>iReq2A</t>
+  </si>
+  <si>
+    <t>iReq3A</t>
+  </si>
+  <si>
+    <t>iReq4A</t>
+  </si>
+  <si>
+    <t>iTopRot</t>
+  </si>
+  <si>
+    <t>iCpAvailable</t>
+  </si>
+  <si>
+    <t>iCpReadyStop</t>
+  </si>
+  <si>
+    <t>iCpMaxPower</t>
+  </si>
+  <si>
+    <t>iCpAntiShortCycle</t>
+  </si>
+  <si>
+    <t>iCpMiniStop</t>
+  </si>
+  <si>
+    <t>iCpCapDrawerPower</t>
+  </si>
+  <si>
+    <t>iStopReq</t>
+  </si>
+  <si>
+    <t>iUpReq</t>
+  </si>
+  <si>
+    <t>iDownReq</t>
+  </si>
+  <si>
+    <t>iFastDownReq</t>
+  </si>
+  <si>
+    <t>iSingleCpReg</t>
+  </si>
+  <si>
+    <t>iMultipleCpReg</t>
+  </si>
+  <si>
+    <t>iCpReadyStart</t>
+  </si>
+  <si>
+    <t>iCpCapDrawerMinPower</t>
+  </si>
+  <si>
+    <t>iCpCapDrawerMaxPower</t>
+  </si>
+  <si>
+    <t>iCpSpeed</t>
+  </si>
+  <si>
+    <t>iCpMinSpeed</t>
+  </si>
+  <si>
+    <t>iCpMaxSpeed</t>
+  </si>
+  <si>
+    <t>iCpVIDrawerPos</t>
+  </si>
+  <si>
+    <t>iCpVIDrawerSetpoint</t>
+  </si>
+  <si>
+    <t>i1stCpReq</t>
+  </si>
+  <si>
+    <t>iAddCpReq</t>
+  </si>
+  <si>
+    <t>iLessCpReq</t>
+  </si>
+  <si>
+    <t>iLastCpStopReq</t>
+  </si>
+  <si>
+    <t>iPIDOutput</t>
+  </si>
+  <si>
+    <t>iCp1ReqStart</t>
+  </si>
+  <si>
+    <t>iCp1FeedBack</t>
+  </si>
+  <si>
+    <t>iCp1CentralMode</t>
+  </si>
+  <si>
+    <t>iCp1StartCycleOk</t>
+  </si>
+  <si>
+    <t>iCp1ReadyStop</t>
+  </si>
+  <si>
+    <t>iCp1Fault</t>
+  </si>
+  <si>
+    <t>iCp2ReqStart</t>
+  </si>
+  <si>
+    <t>iCp2FeedBack</t>
+  </si>
+  <si>
+    <t>iCp2CentralMode</t>
+  </si>
+  <si>
+    <t>iCp2StartCycleOk</t>
+  </si>
+  <si>
+    <t>iCp2ReadyStop</t>
+  </si>
+  <si>
+    <t>iCp2Fault</t>
+  </si>
+  <si>
+    <t>iCp3ReqStart</t>
+  </si>
+  <si>
+    <t>iCp3FeedBack</t>
+  </si>
+  <si>
+    <t>iCp3CentralMode</t>
+  </si>
+  <si>
+    <t>iCp3StartCycleOk</t>
+  </si>
+  <si>
+    <t>iCp3ReadyStop</t>
+  </si>
+  <si>
+    <t>iCp3Fault</t>
+  </si>
+  <si>
+    <t>iCp4ReqStart</t>
+  </si>
+  <si>
+    <t>iCp4FeedBack</t>
+  </si>
+  <si>
+    <t>iCp4CentralMode</t>
+  </si>
+  <si>
+    <t>iCp4StartCycleOk</t>
+  </si>
+  <si>
+    <t>iCp4ReadyStop</t>
+  </si>
+  <si>
+    <t>iCp4Fault</t>
+  </si>
+  <si>
+    <t>iSwitchSetPoint</t>
+  </si>
+  <si>
+    <t>iSetPoint1</t>
+  </si>
+  <si>
+    <t>iSetPoint2</t>
+  </si>
+  <si>
+    <t>iInhibAl0</t>
+  </si>
+  <si>
+    <t>iInhibAl1</t>
+  </si>
+  <si>
+    <t>iInhibAl2</t>
+  </si>
+  <si>
+    <t>iInhibAl3</t>
+  </si>
+  <si>
+    <t>iInhibFct0</t>
+  </si>
+  <si>
+    <t>iInhibFct1</t>
+  </si>
+  <si>
+    <t>iInhibFct2</t>
+  </si>
+  <si>
+    <t>iInhibFct3</t>
+  </si>
+  <si>
+    <t>iInhibFct4</t>
+  </si>
+  <si>
+    <t>iSet</t>
+  </si>
+  <si>
+    <t>iAutoSpeedSetpoint</t>
+  </si>
+  <si>
+    <t>iBreak</t>
+  </si>
+  <si>
+    <t>iPos0</t>
+  </si>
+  <si>
+    <t>iPos1</t>
+  </si>
+  <si>
+    <t>iPos2</t>
+  </si>
+  <si>
+    <t>iPos3</t>
+  </si>
+  <si>
+    <t>iPos4</t>
+  </si>
+  <si>
+    <t>iPos5</t>
+  </si>
+  <si>
+    <t>iPos6</t>
+  </si>
+  <si>
+    <t>iPos7</t>
+  </si>
+  <si>
+    <t>iPos8</t>
+  </si>
+  <si>
+    <t>iTemp</t>
+  </si>
+  <si>
+    <t>iHygro</t>
+  </si>
+  <si>
+    <t>iERZGen</t>
+  </si>
+  <si>
+    <t>LTU_SinamicsMotorDriveRev</t>
   </si>
 </sst>
 </file>
@@ -1130,56 +1130,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1955,6 +1905,56 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1969,43 +1969,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60116721-FD34-4391-86D1-713E1ECD5378}" name="Tableau2" displayName="Tableau2" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60116721-FD34-4391-86D1-713E1ECD5378}" name="Tableau2" displayName="Tableau2" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:AE65" xr:uid="{60116721-FD34-4391-86D1-713E1ECD5378}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE64">
     <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{A66173F7-E3B7-4B4B-92E1-B1D5C5595B92}" name="Nom du bloc" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{5798CB71-7549-4E0B-B60B-4DAE87549B34}" name="s_BackJump[1]" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{91831942-2A45-4D1D-B891-3EAFC1C810A0}" name="s_BackJump[2]" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{BD5E0407-4FE6-4276-9C04-EB1B83FA8030}" name="s_BackJump[3]" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{C5F5025D-8B11-4710-B8DF-84245BFFCDC6}" name="s_BackJump[4]" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{E716784E-57DA-4CB4-916A-C6AC310BDE87}" name="s_BackJump[5]" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{6E5AD010-FD30-4342-A000-275885B6E878}" name="s_BackJump[6]" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{C2381BC6-9B8F-4BBB-A7D0-9A4A7808A5B2}" name="s_BackJump[7]" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{496018D0-E75A-4C6B-9A43-B67F1E59484B}" name="s_BackJump[8]" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{09249D2E-7ACC-4074-8542-34C75AB31756}" name="s_BackJump[9]" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{B95D2A74-0B80-48FF-8163-F44D2FA7CE07}" name="s_BackJump[10]" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{8C7F06C3-5192-4BBF-A679-7CAE97422D3C}" name="s_BackJump[11]" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{55D99372-CC4A-4149-A46C-18810665EB20}" name="s_BackJump[12]" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{733757BB-A857-4734-B2AC-0849882D8D86}" name="s_BackJump[13]" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{E1EEFF4E-8F1E-4220-91A5-46B8DF4A2EB0}" name="s_BackJump[14]" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{16CA16CB-9927-489A-8A71-5DD80C9620B3}" name="s_BackJump[15]" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{A232BA4A-7F9E-4E17-92A9-D53AE11DB29F}" name="s_BackJump[16]" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{FB8656CA-5EC6-4A3B-890A-E2C0F3D15E46}" name="s_BackJump[17]" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{57BA00B2-F015-48F2-96B9-DBB1137F09E9}" name="s_BackJump[18]" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{2C3365D4-8583-4BF3-8383-1825CD891703}" name="s_BackJump[19]" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{6CB49EA8-6F01-4AA4-8BE3-2B91D1B67CE9}" name="s_BackJump[20]" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{B5F5EF5B-0A87-4F63-915C-2B33EBF59575}" name="s_BackJump[21]" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{1388F2CC-2BC5-4109-B41B-9025150E9579}" name="s_BackJump[22]" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{C98F5F87-6F56-4CA9-887B-8C1B29623FB8}" name="s_BackJump[23]" dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{A6160666-9890-4F2C-BFDE-943C8AB2B425}" name="s_BackJump[24]" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{0042767B-E243-48CC-A6EF-E73B3B1FFFBD}" name="s_BackJump[25]" dataDxfId="7"/>
-    <tableColumn id="27" xr3:uid="{C7F04593-B879-48EB-8E8A-E90A352BCEEF}" name="s_BackJump[26]" dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{D5C19F9B-39D1-479B-A547-3D1F2DB3721C}" name="s_BackJump[27]" dataDxfId="5"/>
-    <tableColumn id="29" xr3:uid="{9A22E9F8-0E49-4E33-A694-E8D9666A1C2F}" name="s_BackJump[28]" dataDxfId="4"/>
-    <tableColumn id="30" xr3:uid="{C499E3CA-26BE-45BF-8F78-4A5F95986FE3}" name="s_BackJump[29]" dataDxfId="3"/>
-    <tableColumn id="31" xr3:uid="{E6FB45B0-8D0E-4281-9E92-21647DCA2734}" name="s_BackJump[30]" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A66173F7-E3B7-4B4B-92E1-B1D5C5595B92}" name="Nom du bloc" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{5798CB71-7549-4E0B-B60B-4DAE87549B34}" name="s_BackJump[1]" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{91831942-2A45-4D1D-B891-3EAFC1C810A0}" name="s_BackJump[2]" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{BD5E0407-4FE6-4276-9C04-EB1B83FA8030}" name="s_BackJump[3]" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{C5F5025D-8B11-4710-B8DF-84245BFFCDC6}" name="s_BackJump[4]" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E716784E-57DA-4CB4-916A-C6AC310BDE87}" name="s_BackJump[5]" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{6E5AD010-FD30-4342-A000-275885B6E878}" name="s_BackJump[6]" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{C2381BC6-9B8F-4BBB-A7D0-9A4A7808A5B2}" name="s_BackJump[7]" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{496018D0-E75A-4C6B-9A43-B67F1E59484B}" name="s_BackJump[8]" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{09249D2E-7ACC-4074-8542-34C75AB31756}" name="s_BackJump[9]" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{B95D2A74-0B80-48FF-8163-F44D2FA7CE07}" name="s_BackJump[10]" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{8C7F06C3-5192-4BBF-A679-7CAE97422D3C}" name="s_BackJump[11]" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{55D99372-CC4A-4149-A46C-18810665EB20}" name="s_BackJump[12]" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{733757BB-A857-4734-B2AC-0849882D8D86}" name="s_BackJump[13]" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{E1EEFF4E-8F1E-4220-91A5-46B8DF4A2EB0}" name="s_BackJump[14]" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{16CA16CB-9927-489A-8A71-5DD80C9620B3}" name="s_BackJump[15]" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{A232BA4A-7F9E-4E17-92A9-D53AE11DB29F}" name="s_BackJump[16]" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{FB8656CA-5EC6-4A3B-890A-E2C0F3D15E46}" name="s_BackJump[17]" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{57BA00B2-F015-48F2-96B9-DBB1137F09E9}" name="s_BackJump[18]" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{2C3365D4-8583-4BF3-8383-1825CD891703}" name="s_BackJump[19]" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{6CB49EA8-6F01-4AA4-8BE3-2B91D1B67CE9}" name="s_BackJump[20]" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{B5F5EF5B-0A87-4F63-915C-2B33EBF59575}" name="s_BackJump[21]" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{1388F2CC-2BC5-4109-B41B-9025150E9579}" name="s_BackJump[22]" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{C98F5F87-6F56-4CA9-887B-8C1B29623FB8}" name="s_BackJump[23]" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{A6160666-9890-4F2C-BFDE-943C8AB2B425}" name="s_BackJump[24]" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{0042767B-E243-48CC-A6EF-E73B3B1FFFBD}" name="s_BackJump[25]" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{C7F04593-B879-48EB-8E8A-E90A352BCEEF}" name="s_BackJump[26]" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{D5C19F9B-39D1-479B-A547-3D1F2DB3721C}" name="s_BackJump[27]" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{9A22E9F8-0E49-4E33-A694-E8D9666A1C2F}" name="s_BackJump[28]" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{C499E3CA-26BE-45BF-8F78-4A5F95986FE3}" name="s_BackJump[29]" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{E6FB45B0-8D0E-4281-9E92-21647DCA2734}" name="s_BackJump[30]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2310,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831F079-931F-425D-8821-8C6D11496C14}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,52 +2389,52 @@
         <v>15</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -2442,10 +2442,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2481,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2515,10 +2515,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2555,16 +2555,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2595,43 +2595,43 @@
     </row>
     <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2657,37 +2657,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2746,13 +2746,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2785,43 +2785,43 @@
     </row>
     <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2844,25 +2844,25 @@
     </row>
     <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3004,55 +3004,55 @@
     </row>
     <row r="15" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3211,13 +3211,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3357,33 +3357,33 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3517,31 +3517,31 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -3568,31 +3568,31 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3666,28 +3666,28 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -3713,27 +3713,27 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -3760,39 +3760,39 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3851,17 +3851,33 @@
       <c r="AE34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3887,19 +3903,19 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3930,19 +3946,19 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3973,10 +3989,10 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4010,25 +4026,25 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -4057,28 +4073,28 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -4104,33 +4120,33 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -4155,63 +4171,63 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -4228,49 +4244,49 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -4291,10 +4307,10 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4328,7 +4344,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4361,69 +4377,69 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -4436,30 +4452,30 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -4485,21 +4501,21 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -4528,143 +4544,143 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="AB49" s="3" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="AD49" s="3" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4686,13 +4702,13 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4725,7 +4741,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4760,7 +4776,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4793,30 +4809,30 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -4843,18 +4859,36 @@
       <c r="AE54" s="3"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="A55" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -4879,13 +4913,13 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4918,34 +4952,34 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -4971,7 +5005,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5006,13 +5040,13 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5045,13 +5079,13 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5084,22 +5118,22 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -5129,13 +5163,13 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5168,7 +5202,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5203,10 +5237,10 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5240,7 +5274,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5281,4 +5315,375 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7F900E2DD083D4D9BA1EDAA36B763D1" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c8c8fd0075fa89b680a3fd4bb77ca88c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7ce08f2-6064-4922-b41a-c1b9d372f530" xmlns:ns3="36a6c87f-9fb2-48a5-9054-e7e13da81175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="570025976edf2214ddc60617eb99d350" ns2:_="" ns3:_="">
+    <xsd:import namespace="c7ce08f2-6064-4922-b41a-c1b9d372f530"/>
+    <xsd:import namespace="36a6c87f-9fb2-48a5-9054-e7e13da81175"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c7ce08f2-6064-4922-b41a-c1b9d372f530" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Valeur d’ID de document" ma:description="Valeur de l’ID de document affecté à cet élément." ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="ID de document" ma:description="Lien permanent vers ce document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="26" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{707a7ad9-788d-4a21-85b1-e56c126c9825}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c7ce08f2-6064-4922-b41a-c1b9d372f530">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="36a6c87f-9fb2-48a5-9054-e7e13da81175" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="22" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="23" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="25" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9dadaa7d-a6f4-42ff-8e35-220c4decc7f1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="27" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="28" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="c7ce08f2-6064-4922-b41a-c1b9d372f530">2UXSNCPUVT4A-1198375462-992873</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="c7ce08f2-6064-4922-b41a-c1b9d372f530">
+      <Url>https://mousquetaires.sharepoint.com/sites/AGROM-DirectionTechnique/_layouts/15/DocIdRedir.aspx?ID=2UXSNCPUVT4A-1198375462-992873</Url>
+      <Description>2UXSNCPUVT4A-1198375462-992873</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="36a6c87f-9fb2-48a5-9054-e7e13da81175">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7ce08f2-6064-4922-b41a-c1b9d372f530" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01465CC-41AB-457B-9101-DC78F18EBE5B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C52B277-5E6F-4D84-8014-D0084E6C1F34}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F50318FD-5881-416E-8A8E-142933994634}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A895DCDD-5ABC-4506-95A8-D6F9A1A42626}"/>
 </file>